--- a/biology/Médecine/Interprétation_en_médecine/Interprétation_en_médecine.xlsx
+++ b/biology/Médecine/Interprétation_en_médecine/Interprétation_en_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Interpr%C3%A9tation_en_m%C3%A9decine</t>
+          <t>Interprétation_en_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'interprétation d'un examen médical est le processus par lequel un médecin analyse les résultats sous forme de chiffre, d'image, pour rendre un diagnostic.
 Certains examens comme les bilans sanguins peuvent être interprétés par divers personnels médicaux.
